--- a/Team-Data/2008-09/11-2-2008-09.xlsx
+++ b/Team-Data/2008-09/11-2-2008-09.xlsx
@@ -811,10 +811,10 @@
         <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF2" t="n">
         <v>1</v>
@@ -832,10 +832,10 @@
         <v>2</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM2" t="n">
         <v>4</v>
@@ -844,13 +844,13 @@
         <v>21</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP2" t="n">
         <v>27</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR2" t="n">
         <v>2</v>
@@ -859,7 +859,7 @@
         <v>9</v>
       </c>
       <c r="AT2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU2" t="n">
         <v>18</v>
@@ -871,19 +871,19 @@
         <v>1</v>
       </c>
       <c r="AX2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ2" t="n">
         <v>3</v>
       </c>
       <c r="BA2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC2" t="n">
         <v>4</v>
@@ -915,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
         <v>2</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.667</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>29.5</v>
+        <v>30.7</v>
       </c>
       <c r="J3" t="n">
-        <v>75.5</v>
+        <v>75</v>
       </c>
       <c r="K3" t="n">
-        <v>0.391</v>
+        <v>0.409</v>
       </c>
       <c r="L3" t="n">
         <v>3</v>
@@ -948,61 +948,61 @@
         <v>0.214</v>
       </c>
       <c r="O3" t="n">
-        <v>25.5</v>
+        <v>24</v>
       </c>
       <c r="P3" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.667</v>
       </c>
       <c r="R3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S3" t="n">
-        <v>37.5</v>
+        <v>33.7</v>
       </c>
       <c r="T3" t="n">
-        <v>50.5</v>
+        <v>45.7</v>
       </c>
       <c r="U3" t="n">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="V3" t="n">
-        <v>22</v>
+        <v>20.3</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y3" t="n">
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>26.7</v>
       </c>
       <c r="AA3" t="n">
-        <v>28.5</v>
+        <v>27.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.5</v>
+        <v>88.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AF3" t="n">
         <v>8</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH3" t="n">
         <v>5</v>
@@ -1014,7 +1014,7 @@
         <v>24</v>
       </c>
       <c r="AK3" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AL3" t="n">
         <v>26</v>
@@ -1029,34 +1029,34 @@
         <v>4</v>
       </c>
       <c r="AP3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AR3" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV3" t="n">
         <v>30</v>
       </c>
       <c r="AW3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AZ3" t="n">
         <v>29</v>
@@ -1068,7 +1068,7 @@
         <v>27</v>
       </c>
       <c r="BC3" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1175,16 +1175,16 @@
         <v>-2</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF4" t="n">
         <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
         <v>5</v>
@@ -1196,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>23</v>
@@ -1217,10 +1217,10 @@
         <v>16</v>
       </c>
       <c r="AR4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT4" t="n">
         <v>24</v>
@@ -1229,7 +1229,7 @@
         <v>11</v>
       </c>
       <c r="AV4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW4" t="n">
         <v>26</v>
@@ -1241,13 +1241,13 @@
         <v>30</v>
       </c>
       <c r="AZ4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC4" t="n">
         <v>20</v>
@@ -1279,160 +1279,160 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
         <v>2</v>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>0.667</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>28.5</v>
+        <v>30.7</v>
       </c>
       <c r="J5" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K5" t="n">
-        <v>0.339</v>
+        <v>0.388</v>
       </c>
       <c r="L5" t="n">
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="N5" t="n">
-        <v>0.37</v>
+        <v>0.385</v>
       </c>
       <c r="O5" t="n">
-        <v>26</v>
+        <v>28.3</v>
       </c>
       <c r="P5" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="R5" t="n">
+        <v>15</v>
+      </c>
+      <c r="S5" t="n">
         <v>30</v>
       </c>
-      <c r="Q5" t="n">
-        <v>0.867</v>
-      </c>
-      <c r="R5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>32</v>
-      </c>
       <c r="T5" t="n">
-        <v>47.5</v>
+        <v>45</v>
       </c>
       <c r="U5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="V5" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.5</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>26.5</v>
+        <v>27.7</v>
       </c>
       <c r="AB5" t="n">
-        <v>88</v>
+        <v>94.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3</v>
+        <v>2.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AF5" t="n">
         <v>8</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH5" t="n">
         <v>5</v>
       </c>
       <c r="AI5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>2</v>
       </c>
       <c r="AR5" t="n">
         <v>3</v>
       </c>
       <c r="AS5" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AT5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU5" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AV5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW5" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY5" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BA5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB5" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1461,160 +1461,160 @@
         </is>
       </c>
       <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
         <v>2</v>
       </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>35.5</v>
+        <v>33.3</v>
       </c>
       <c r="J6" t="n">
-        <v>73.5</v>
+        <v>71.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.483</v>
+        <v>0.465</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>6.3</v>
       </c>
       <c r="M6" t="n">
-        <v>22</v>
+        <v>19.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.364</v>
+        <v>0.322</v>
       </c>
       <c r="O6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.625</v>
+        <v>0.667</v>
       </c>
       <c r="R6" t="n">
-        <v>10</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S6" t="n">
-        <v>31</v>
+        <v>31.7</v>
       </c>
       <c r="T6" t="n">
         <v>41</v>
       </c>
       <c r="U6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="V6" t="n">
-        <v>16.5</v>
+        <v>18.3</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="X6" t="n">
-        <v>7.5</v>
+        <v>5.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.5</v>
+        <v>24.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.5</v>
+        <v>23.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
         <v>5</v>
       </c>
       <c r="AI6" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AJ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>28</v>
       </c>
-      <c r="AK6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>30</v>
-      </c>
       <c r="AR6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT6" t="n">
         <v>16</v>
       </c>
       <c r="AU6" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AW6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB6" t="n">
         <v>24</v>
       </c>
-      <c r="AX6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA6" t="n">
+      <c r="BC6" t="n">
         <v>16</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>21</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>12</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1721,34 +1721,34 @@
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
         <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
         <v>5</v>
       </c>
       <c r="AI7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL7" t="n">
         <v>20</v>
       </c>
       <c r="AM7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN7" t="n">
         <v>22</v>
@@ -1760,16 +1760,16 @@
         <v>14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR7" t="n">
         <v>24</v>
       </c>
       <c r="AS7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU7" t="n">
         <v>11</v>
@@ -1778,7 +1778,7 @@
         <v>2</v>
       </c>
       <c r="AW7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX7" t="n">
         <v>20</v>
@@ -1787,10 +1787,10 @@
         <v>5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB7" t="n">
         <v>11</v>
@@ -1906,19 +1906,19 @@
         <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AH8" t="n">
         <v>1</v>
       </c>
       <c r="AI8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
         <v>17</v>
@@ -1927,16 +1927,16 @@
         <v>9</v>
       </c>
       <c r="AL8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN8" t="n">
         <v>15</v>
       </c>
       <c r="AO8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP8" t="n">
         <v>4</v>
@@ -1948,31 +1948,31 @@
         <v>26</v>
       </c>
       <c r="AS8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT8" t="n">
         <v>11</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW8" t="n">
         <v>4</v>
       </c>
       <c r="AX8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB8" t="n">
         <v>8</v>
@@ -2085,10 +2085,10 @@
         <v>7</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF9" t="n">
         <v>1</v>
@@ -2106,7 +2106,7 @@
         <v>4</v>
       </c>
       <c r="AK9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL9" t="n">
         <v>13</v>
@@ -2115,25 +2115,25 @@
         <v>24</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO9" t="n">
         <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR9" t="n">
         <v>3</v>
       </c>
-      <c r="AR9" t="n">
-        <v>4</v>
-      </c>
       <c r="AS9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU9" t="n">
         <v>1</v>
@@ -2142,22 +2142,22 @@
         <v>18</v>
       </c>
       <c r="AW9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
       </c>
       <c r="AY9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC9" t="n">
         <v>6</v>
@@ -2270,25 +2270,25 @@
         <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AH10" t="n">
         <v>4</v>
       </c>
       <c r="AI10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ10" t="n">
         <v>5</v>
       </c>
       <c r="AK10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2297,7 +2297,7 @@
         <v>3</v>
       </c>
       <c r="AN10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO10" t="n">
         <v>8</v>
@@ -2306,34 +2306,34 @@
         <v>3</v>
       </c>
       <c r="AQ10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT10" t="n">
         <v>14</v>
       </c>
       <c r="AU10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY10" t="n">
         <v>28</v>
       </c>
       <c r="AZ10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA10" t="n">
         <v>3</v>
@@ -2470,19 +2470,19 @@
         <v>21</v>
       </c>
       <c r="AK11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
         <v>13</v>
       </c>
       <c r="AM11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN11" t="n">
         <v>12</v>
       </c>
       <c r="AO11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP11" t="n">
         <v>8</v>
@@ -2491,16 +2491,16 @@
         <v>1</v>
       </c>
       <c r="AR11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT11" t="n">
         <v>4</v>
       </c>
-      <c r="AT11" t="n">
-        <v>6</v>
-      </c>
       <c r="AU11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV11" t="n">
         <v>10</v>
@@ -2512,13 +2512,13 @@
         <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
         <v>1</v>
       </c>
       <c r="BA11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB11" t="n">
         <v>20</v>
@@ -2631,16 +2631,16 @@
         <v>5</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
         <v>8</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -2655,10 +2655,10 @@
         <v>15</v>
       </c>
       <c r="AL12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN12" t="n">
         <v>19</v>
@@ -2670,13 +2670,13 @@
         <v>10</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR12" t="n">
         <v>24</v>
       </c>
       <c r="AS12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT12" t="n">
         <v>12</v>
@@ -2685,22 +2685,22 @@
         <v>18</v>
       </c>
       <c r="AV12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>21</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB12" t="n">
         <v>19</v>
@@ -2831,16 +2831,16 @@
         <v>25</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL13" t="n">
         <v>25</v>
       </c>
       <c r="AM13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN13" t="n">
         <v>26</v>
@@ -2849,37 +2849,37 @@
         <v>16</v>
       </c>
       <c r="AP13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ13" t="n">
         <v>14</v>
       </c>
       <c r="AR13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT13" t="n">
         <v>15</v>
       </c>
       <c r="AU13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW13" t="n">
         <v>18</v>
       </c>
       <c r="AX13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA13" t="n">
         <v>20</v>
@@ -2917,10 +2917,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -2935,70 +2935,70 @@
         <v>37</v>
       </c>
       <c r="J14" t="n">
-        <v>83.5</v>
+        <v>82</v>
       </c>
       <c r="K14" t="n">
-        <v>0.443</v>
+        <v>0.451</v>
       </c>
       <c r="L14" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18</v>
+        <v>15.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.444</v>
+        <v>0.5</v>
       </c>
       <c r="O14" t="n">
-        <v>28.5</v>
+        <v>24</v>
       </c>
       <c r="P14" t="n">
-        <v>38</v>
+        <v>31.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.75</v>
+        <v>0.766</v>
       </c>
       <c r="R14" t="n">
-        <v>14.5</v>
+        <v>12.7</v>
       </c>
       <c r="S14" t="n">
-        <v>37.5</v>
+        <v>38.3</v>
       </c>
       <c r="T14" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U14" t="n">
-        <v>23</v>
+        <v>21.7</v>
       </c>
       <c r="V14" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="W14" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="X14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y14" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>22</v>
+        <v>20.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>27.5</v>
+        <v>24</v>
       </c>
       <c r="AB14" t="n">
-        <v>110.5</v>
+        <v>105.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>22.5</v>
+        <v>21.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
         <v>1</v>
@@ -3010,64 +3010,64 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ14" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AK14" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AL14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AM14" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AN14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO14" t="n">
         <v>4</v>
       </c>
-      <c r="AO14" t="n">
-        <v>1</v>
-      </c>
       <c r="AP14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AR14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT14" t="n">
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW14" t="n">
         <v>14</v>
       </c>
       <c r="AX14" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AY14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ14" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BA14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC14" t="n">
         <v>1</v>
@@ -3180,13 +3180,13 @@
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF15" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AH15" t="n">
         <v>5</v>
@@ -3198,7 +3198,7 @@
         <v>21</v>
       </c>
       <c r="AK15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL15" t="n">
         <v>29</v>
@@ -3210,7 +3210,7 @@
         <v>29</v>
       </c>
       <c r="AO15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP15" t="n">
         <v>21</v>
@@ -3219,10 +3219,10 @@
         <v>13</v>
       </c>
       <c r="AR15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT15" t="n">
         <v>8</v>
@@ -3237,13 +3237,13 @@
         <v>23</v>
       </c>
       <c r="AX15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA15" t="n">
         <v>27</v>
@@ -3252,7 +3252,7 @@
         <v>30</v>
       </c>
       <c r="BC15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3362,19 +3362,19 @@
         <v>1</v>
       </c>
       <c r="AE16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF16" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AH16" t="n">
         <v>5</v>
       </c>
       <c r="AI16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ16" t="n">
         <v>12</v>
@@ -3383,7 +3383,7 @@
         <v>10</v>
       </c>
       <c r="AL16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM16" t="n">
         <v>6</v>
@@ -3395,22 +3395,22 @@
         <v>13</v>
       </c>
       <c r="AP16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU16" t="n">
         <v>13</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>14</v>
       </c>
       <c r="AV16" t="n">
         <v>8</v>
@@ -3419,7 +3419,7 @@
         <v>3</v>
       </c>
       <c r="AX16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY16" t="n">
         <v>2</v>
@@ -3428,13 +3428,13 @@
         <v>19</v>
       </c>
       <c r="BA16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB16" t="n">
         <v>6</v>
       </c>
       <c r="BC16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3463,118 +3463,118 @@
         </is>
       </c>
       <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
         <v>2</v>
       </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>35.5</v>
+        <v>36</v>
       </c>
       <c r="J17" t="n">
-        <v>78.5</v>
+        <v>78.3</v>
       </c>
       <c r="K17" t="n">
-        <v>0.452</v>
+        <v>0.46</v>
       </c>
       <c r="L17" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>15</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="O17" t="n">
+        <v>16</v>
+      </c>
+      <c r="P17" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="R17" t="n">
+        <v>12</v>
+      </c>
+      <c r="S17" t="n">
+        <v>26</v>
+      </c>
+      <c r="T17" t="n">
+        <v>38</v>
+      </c>
+      <c r="U17" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="V17" t="n">
+        <v>18</v>
+      </c>
+      <c r="W17" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y17" t="n">
         <v>5</v>
       </c>
-      <c r="M17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.323</v>
-      </c>
-      <c r="O17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="P17" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.733</v>
-      </c>
-      <c r="R17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="T17" t="n">
-        <v>41</v>
-      </c>
-      <c r="U17" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="V17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="W17" t="n">
-        <v>7</v>
-      </c>
-      <c r="X17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>4.5</v>
-      </c>
       <c r="Z17" t="n">
-        <v>24.5</v>
+        <v>26.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB17" t="n">
-        <v>92.5</v>
+        <v>93.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>3.5</v>
+        <v>-2</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF17" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>5</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ17" t="n">
         <v>20</v>
       </c>
       <c r="AK17" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AL17" t="n">
         <v>16</v>
       </c>
       <c r="AM17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP17" t="n">
         <v>25</v>
@@ -3583,40 +3583,40 @@
         <v>20</v>
       </c>
       <c r="AR17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS17" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AT17" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AX17" t="n">
         <v>24</v>
       </c>
-      <c r="AW17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>23</v>
-      </c>
       <c r="AY17" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ17" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BA17" t="n">
         <v>22</v>
       </c>
       <c r="BB17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3723,28 +3723,28 @@
         <v>-4</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF18" t="n">
         <v>8</v>
       </c>
       <c r="AG18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
         <v>5</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL18" t="n">
         <v>27</v>
@@ -3756,7 +3756,7 @@
         <v>28</v>
       </c>
       <c r="AO18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP18" t="n">
         <v>21</v>
@@ -3768,13 +3768,13 @@
         <v>17</v>
       </c>
       <c r="AS18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT18" t="n">
         <v>16</v>
       </c>
       <c r="AU18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV18" t="n">
         <v>9</v>
@@ -3783,19 +3783,19 @@
         <v>18</v>
       </c>
       <c r="AX18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ18" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA18" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB18" t="n">
         <v>23</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>24</v>
       </c>
       <c r="BC18" t="n">
         <v>23</v>
@@ -3905,25 +3905,25 @@
         <v>1</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF19" t="n">
         <v>8</v>
       </c>
       <c r="AG19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
         <v>5</v>
       </c>
       <c r="AI19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK19" t="n">
         <v>14</v>
@@ -3932,7 +3932,7 @@
         <v>13</v>
       </c>
       <c r="AM19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN19" t="n">
         <v>17</v>
@@ -3944,19 +3944,19 @@
         <v>21</v>
       </c>
       <c r="AQ19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR19" t="n">
         <v>17</v>
       </c>
       <c r="AS19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT19" t="n">
         <v>16</v>
       </c>
       <c r="AU19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV19" t="n">
         <v>13</v>
@@ -3965,19 +3965,19 @@
         <v>18</v>
       </c>
       <c r="AX19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ19" t="n">
         <v>30</v>
       </c>
       <c r="BA19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC19" t="n">
         <v>13</v>
@@ -4126,19 +4126,19 @@
         <v>10</v>
       </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR20" t="n">
         <v>21</v>
       </c>
       <c r="AS20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT20" t="n">
         <v>25</v>
       </c>
       <c r="AU20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV20" t="n">
         <v>10</v>
@@ -4156,10 +4156,10 @@
         <v>5</v>
       </c>
       <c r="BA20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC20" t="n">
         <v>5</v>
@@ -4269,31 +4269,31 @@
         <v>-12</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF21" t="n">
         <v>8</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
         <v>5</v>
       </c>
       <c r="AI21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ21" t="n">
         <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM21" t="n">
         <v>1</v>
@@ -4311,7 +4311,7 @@
         <v>19</v>
       </c>
       <c r="AR21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS21" t="n">
         <v>19</v>
@@ -4332,13 +4332,13 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ21" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB21" t="n">
         <v>5</v>
@@ -4451,13 +4451,13 @@
         <v>-11.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="n">
         <v>26</v>
       </c>
       <c r="AF22" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AG22" t="n">
         <v>26</v>
@@ -4469,7 +4469,7 @@
         <v>23</v>
       </c>
       <c r="AJ22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK22" t="n">
         <v>24</v>
@@ -4484,7 +4484,7 @@
         <v>30</v>
       </c>
       <c r="AO22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP22" t="n">
         <v>26</v>
@@ -4496,22 +4496,22 @@
         <v>21</v>
       </c>
       <c r="AS22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT22" t="n">
         <v>25</v>
       </c>
       <c r="AU22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AV22" t="n">
         <v>25</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>28</v>
       </c>
       <c r="AW22" t="n">
         <v>4</v>
       </c>
       <c r="AX22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY22" t="n">
         <v>3</v>
@@ -4636,19 +4636,19 @@
         <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF23" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AG23" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AH23" t="n">
         <v>5</v>
       </c>
       <c r="AI23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="n">
         <v>17</v>
@@ -4657,7 +4657,7 @@
         <v>16</v>
       </c>
       <c r="AL23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM23" t="n">
         <v>2</v>
@@ -4675,16 +4675,16 @@
         <v>25</v>
       </c>
       <c r="AR23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT23" t="n">
         <v>12</v>
       </c>
       <c r="AU23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV23" t="n">
         <v>16</v>
@@ -4693,19 +4693,19 @@
         <v>16</v>
       </c>
       <c r="AX23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ23" t="n">
         <v>19</v>
       </c>
       <c r="BA23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC23" t="n">
         <v>15</v>
@@ -4818,13 +4818,13 @@
         <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF24" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AH24" t="n">
         <v>5</v>
@@ -4848,7 +4848,7 @@
         <v>14</v>
       </c>
       <c r="AO24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP24" t="n">
         <v>28</v>
@@ -4866,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="AU24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV24" t="n">
         <v>29</v>
@@ -4875,7 +4875,7 @@
         <v>29</v>
       </c>
       <c r="AX24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY24" t="n">
         <v>6</v>
@@ -4887,7 +4887,7 @@
         <v>28</v>
       </c>
       <c r="BB24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC24" t="n">
         <v>9</v>
@@ -5000,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF25" t="n">
         <v>8</v>
@@ -5015,25 +5015,25 @@
         <v>6</v>
       </c>
       <c r="AJ25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
         <v>16</v>
       </c>
       <c r="AP25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ25" t="n">
         <v>18</v>
@@ -5057,7 +5057,7 @@
         <v>27</v>
       </c>
       <c r="AX25" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AY25" t="n">
         <v>6</v>
@@ -5101,160 +5101,160 @@
         </is>
       </c>
       <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
         <v>2</v>
       </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="H26" t="n">
         <v>48</v>
       </c>
       <c r="I26" t="n">
-        <v>37.5</v>
+        <v>34.7</v>
       </c>
       <c r="J26" t="n">
-        <v>81.5</v>
+        <v>82.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.46</v>
+        <v>0.421</v>
       </c>
       <c r="L26" t="n">
-        <v>7.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="N26" t="n">
-        <v>0.385</v>
+        <v>0.397</v>
       </c>
       <c r="O26" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="P26" t="n">
-        <v>19</v>
+        <v>17.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="R26" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="S26" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="T26" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="U26" t="n">
+        <v>18</v>
+      </c>
+      <c r="V26" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="W26" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="X26" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>-10</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE26" t="n">
         <v>11</v>
       </c>
-      <c r="S26" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="T26" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="U26" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="V26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W26" t="n">
-        <v>9</v>
-      </c>
-      <c r="X26" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>98</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>-5</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>9</v>
-      </c>
       <c r="AF26" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AG26" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
         <v>5</v>
       </c>
       <c r="AI26" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AK26" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AL26" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AM26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
         <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AP26" t="n">
         <v>29</v>
       </c>
       <c r="AQ26" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AR26" t="n">
         <v>15</v>
       </c>
       <c r="AS26" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AT26" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AU26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX26" t="n">
         <v>24</v>
       </c>
-      <c r="AV26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW26" t="n">
+      <c r="AY26" t="n">
         <v>4</v>
       </c>
-      <c r="AX26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>1</v>
-      </c>
       <c r="AZ26" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BA26" t="n">
         <v>29</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="BC26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5376,19 +5376,19 @@
         <v>5</v>
       </c>
       <c r="AI27" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="n">
         <v>23</v>
       </c>
       <c r="AK27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL27" t="n">
         <v>23</v>
       </c>
       <c r="AM27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN27" t="n">
         <v>24</v>
@@ -5400,40 +5400,40 @@
         <v>21</v>
       </c>
       <c r="AQ27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR27" t="n">
         <v>26</v>
       </c>
       <c r="AS27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AV27" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AW27" t="n">
         <v>27</v>
       </c>
       <c r="AX27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA27" t="n">
         <v>25</v>
       </c>
       <c r="BB27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5543,13 +5543,13 @@
         <v>-3</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
         <v>26</v>
       </c>
       <c r="AF28" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AG28" t="n">
         <v>26</v>
@@ -5567,34 +5567,34 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP28" t="n">
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
@@ -5606,10 +5606,10 @@
         <v>29</v>
       </c>
       <c r="AY28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA28" t="n">
         <v>26</v>
@@ -5618,7 +5618,7 @@
         <v>11</v>
       </c>
       <c r="BC28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5740,16 +5740,16 @@
         <v>1</v>
       </c>
       <c r="AI29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ29" t="n">
         <v>25</v>
       </c>
       <c r="AK29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM29" t="n">
         <v>21</v>
@@ -5761,19 +5761,19 @@
         <v>13</v>
       </c>
       <c r="AP29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR29" t="n">
         <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU29" t="n">
         <v>2</v>
@@ -5782,19 +5782,19 @@
         <v>12</v>
       </c>
       <c r="AW29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ29" t="n">
         <v>6</v>
       </c>
       <c r="BA29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB29" t="n">
         <v>10</v>
@@ -5907,10 +5907,10 @@
         <v>13</v>
       </c>
       <c r="AD30" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF30" t="n">
         <v>1</v>
@@ -5925,10 +5925,10 @@
         <v>2</v>
       </c>
       <c r="AJ30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL30" t="n">
         <v>27</v>
@@ -5940,16 +5940,16 @@
         <v>24</v>
       </c>
       <c r="AO30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ30" t="n">
         <v>24</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS30" t="n">
         <v>9</v>
@@ -5967,16 +5967,16 @@
         <v>18</v>
       </c>
       <c r="AX30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY30" t="n">
         <v>18</v>
       </c>
-      <c r="AY30" t="n">
-        <v>16</v>
-      </c>
       <c r="AZ30" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB30" t="n">
         <v>9</v>
@@ -6089,13 +6089,13 @@
         <v>-9</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE31" t="n">
         <v>26</v>
       </c>
       <c r="AF31" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AG31" t="n">
         <v>26</v>
@@ -6107,7 +6107,7 @@
         <v>17</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK31" t="n">
         <v>17</v>
@@ -6116,7 +6116,7 @@
         <v>20</v>
       </c>
       <c r="AM31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN31" t="n">
         <v>23</v>
@@ -6128,19 +6128,19 @@
         <v>13</v>
       </c>
       <c r="AQ31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR31" t="n">
         <v>21</v>
       </c>
       <c r="AS31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AU31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV31" t="n">
         <v>4</v>
@@ -6155,16 +6155,16 @@
         <v>29</v>
       </c>
       <c r="AZ31" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>

--- a/Team-Data/2008-09/11-2-2008-09.xlsx
+++ b/Team-Data/2008-09/11-2-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,10 +811,10 @@
         <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF2" t="n">
         <v>1</v>
@@ -765,10 +832,10 @@
         <v>2</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM2" t="n">
         <v>4</v>
@@ -777,22 +844,22 @@
         <v>21</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR2" t="n">
         <v>2</v>
       </c>
       <c r="AS2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU2" t="n">
         <v>18</v>
@@ -804,10 +871,10 @@
         <v>1</v>
       </c>
       <c r="AX2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ2" t="n">
         <v>3</v>
@@ -816,7 +883,7 @@
         <v>16</v>
       </c>
       <c r="BB2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC2" t="n">
         <v>4</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
         <v>2</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.667</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>29.5</v>
+        <v>30.7</v>
       </c>
       <c r="J3" t="n">
-        <v>75.5</v>
+        <v>75</v>
       </c>
       <c r="K3" t="n">
-        <v>0.391</v>
+        <v>0.409</v>
       </c>
       <c r="L3" t="n">
         <v>3</v>
@@ -881,61 +948,61 @@
         <v>0.214</v>
       </c>
       <c r="O3" t="n">
-        <v>25.5</v>
+        <v>24</v>
       </c>
       <c r="P3" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.667</v>
       </c>
       <c r="R3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S3" t="n">
-        <v>37.5</v>
+        <v>33.7</v>
       </c>
       <c r="T3" t="n">
-        <v>50.5</v>
+        <v>45.7</v>
       </c>
       <c r="U3" t="n">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="V3" t="n">
-        <v>22</v>
+        <v>20.3</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y3" t="n">
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>26.7</v>
       </c>
       <c r="AA3" t="n">
-        <v>28.5</v>
+        <v>27.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.5</v>
+        <v>88.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AF3" t="n">
         <v>8</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH3" t="n">
         <v>5</v>
@@ -947,13 +1014,13 @@
         <v>24</v>
       </c>
       <c r="AK3" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AL3" t="n">
         <v>26</v>
       </c>
       <c r="AM3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN3" t="n">
         <v>27</v>
@@ -962,34 +1029,34 @@
         <v>4</v>
       </c>
       <c r="AP3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ3" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AR3" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV3" t="n">
         <v>30</v>
       </c>
       <c r="AW3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AZ3" t="n">
         <v>29</v>
@@ -1001,7 +1068,7 @@
         <v>27</v>
       </c>
       <c r="BC3" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>-2</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF4" t="n">
         <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
         <v>5</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>23</v>
@@ -1147,22 +1214,22 @@
         <v>5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AR4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AW4" t="n">
         <v>26</v>
@@ -1174,13 +1241,13 @@
         <v>30</v>
       </c>
       <c r="AZ4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BC4" t="n">
         <v>20</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -1212,160 +1279,160 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
         <v>2</v>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>0.667</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>28.5</v>
+        <v>30.7</v>
       </c>
       <c r="J5" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K5" t="n">
-        <v>0.339</v>
+        <v>0.388</v>
       </c>
       <c r="L5" t="n">
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="N5" t="n">
-        <v>0.37</v>
+        <v>0.385</v>
       </c>
       <c r="O5" t="n">
-        <v>26</v>
+        <v>28.3</v>
       </c>
       <c r="P5" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="R5" t="n">
+        <v>15</v>
+      </c>
+      <c r="S5" t="n">
         <v>30</v>
       </c>
-      <c r="Q5" t="n">
-        <v>0.867</v>
-      </c>
-      <c r="R5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>32</v>
-      </c>
       <c r="T5" t="n">
-        <v>47.5</v>
+        <v>45</v>
       </c>
       <c r="U5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="V5" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.5</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>26.5</v>
+        <v>27.7</v>
       </c>
       <c r="AB5" t="n">
-        <v>88</v>
+        <v>94.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3</v>
+        <v>2.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AF5" t="n">
         <v>8</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH5" t="n">
         <v>5</v>
       </c>
       <c r="AI5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>2</v>
       </c>
       <c r="AR5" t="n">
         <v>3</v>
       </c>
       <c r="AS5" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AT5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU5" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AV5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW5" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY5" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ5" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="BA5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB5" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -1394,160 +1461,160 @@
         </is>
       </c>
       <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
         <v>2</v>
       </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>35.5</v>
+        <v>33.3</v>
       </c>
       <c r="J6" t="n">
-        <v>73.5</v>
+        <v>71.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.483</v>
+        <v>0.465</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>6.3</v>
       </c>
       <c r="M6" t="n">
-        <v>22</v>
+        <v>19.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.364</v>
+        <v>0.322</v>
       </c>
       <c r="O6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.625</v>
+        <v>0.667</v>
       </c>
       <c r="R6" t="n">
-        <v>10</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S6" t="n">
-        <v>31</v>
+        <v>31.7</v>
       </c>
       <c r="T6" t="n">
         <v>41</v>
       </c>
       <c r="U6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="V6" t="n">
-        <v>16.5</v>
+        <v>18.3</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="X6" t="n">
-        <v>7.5</v>
+        <v>5.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.5</v>
+        <v>24.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.5</v>
+        <v>23.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF6" t="n">
         <v>17</v>
       </c>
-      <c r="AE6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>8</v>
-      </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
         <v>5</v>
       </c>
       <c r="AI6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT6" t="n">
         <v>16</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AU6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV6" t="n">
         <v>28</v>
       </c>
-      <c r="AK6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>20</v>
-      </c>
       <c r="AW6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB6" t="n">
         <v>24</v>
       </c>
-      <c r="AX6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>22</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>17</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>21</v>
-      </c>
       <c r="BC6" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -1654,34 +1721,34 @@
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
         <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
         <v>5</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL7" t="n">
         <v>20</v>
       </c>
       <c r="AM7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN7" t="n">
         <v>22</v>
@@ -1690,34 +1757,34 @@
         <v>9</v>
       </c>
       <c r="AP7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR7" t="n">
         <v>24</v>
       </c>
       <c r="AS7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AT7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>2</v>
       </c>
       <c r="AW7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX7" t="n">
         <v>20</v>
       </c>
       <c r="AY7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ7" t="n">
         <v>10</v>
@@ -1726,7 +1793,7 @@
         <v>17</v>
       </c>
       <c r="BB7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC7" t="n">
         <v>16</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -1839,76 +1906,76 @@
         <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH8" t="n">
         <v>1</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
         <v>9</v>
       </c>
       <c r="AL8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP8" t="n">
         <v>4</v>
       </c>
       <c r="AQ8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
         <v>26</v>
       </c>
       <c r="AS8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU8" t="n">
         <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AW8" t="n">
         <v>4</v>
       </c>
       <c r="AX8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB8" t="n">
         <v>8</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>7</v>
       </c>
       <c r="BC8" t="n">
         <v>18</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>7</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF9" t="n">
         <v>1</v>
@@ -2039,7 +2106,7 @@
         <v>4</v>
       </c>
       <c r="AK9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL9" t="n">
         <v>13</v>
@@ -2048,40 +2115,40 @@
         <v>24</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
         <v>20</v>
       </c>
       <c r="AQ9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR9" t="n">
         <v>3</v>
       </c>
-      <c r="AR9" t="n">
-        <v>4</v>
-      </c>
       <c r="AS9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU9" t="n">
         <v>1</v>
       </c>
       <c r="AV9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
       </c>
       <c r="AY9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ9" t="n">
         <v>16</v>
@@ -2090,7 +2157,7 @@
         <v>17</v>
       </c>
       <c r="BB9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC9" t="n">
         <v>6</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -2203,13 +2270,13 @@
         <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH10" t="n">
         <v>4</v>
@@ -2224,13 +2291,13 @@
         <v>19</v>
       </c>
       <c r="AL10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM10" t="n">
         <v>3</v>
       </c>
       <c r="AN10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO10" t="n">
         <v>8</v>
@@ -2239,25 +2306,25 @@
         <v>3</v>
       </c>
       <c r="AQ10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR10" t="n">
         <v>6</v>
       </c>
       <c r="AS10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AT10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV10" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AW10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX10" t="n">
         <v>15</v>
@@ -2266,7 +2333,7 @@
         <v>28</v>
       </c>
       <c r="AZ10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA10" t="n">
         <v>3</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -2403,19 +2470,19 @@
         <v>21</v>
       </c>
       <c r="AK11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
         <v>13</v>
       </c>
       <c r="AM11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN11" t="n">
         <v>12</v>
       </c>
       <c r="AO11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP11" t="n">
         <v>8</v>
@@ -2424,19 +2491,19 @@
         <v>1</v>
       </c>
       <c r="AR11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT11" t="n">
         <v>4</v>
       </c>
-      <c r="AT11" t="n">
-        <v>6</v>
-      </c>
       <c r="AU11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AW11" t="n">
         <v>16</v>
@@ -2445,7 +2512,7 @@
         <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -2564,22 +2631,22 @@
         <v>5</v>
       </c>
       <c r="AD12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
         <v>8</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
         <v>25</v>
@@ -2588,10 +2655,10 @@
         <v>15</v>
       </c>
       <c r="AL12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN12" t="n">
         <v>19</v>
@@ -2600,40 +2667,40 @@
         <v>6</v>
       </c>
       <c r="AP12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR12" t="n">
         <v>24</v>
       </c>
       <c r="AS12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU12" t="n">
         <v>18</v>
       </c>
       <c r="AV12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AW12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB12" t="n">
         <v>19</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -2749,13 +2816,13 @@
         <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF13" t="n">
         <v>29</v>
       </c>
       <c r="AG13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH13" t="n">
         <v>1</v>
@@ -2764,55 +2831,55 @@
         <v>25</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL13" t="n">
         <v>25</v>
       </c>
       <c r="AM13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN13" t="n">
         <v>26</v>
       </c>
       <c r="AO13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT13" t="n">
         <v>15</v>
       </c>
-      <c r="AP13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>16</v>
-      </c>
       <c r="AU13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AV13" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AW13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY13" t="n">
         <v>19</v>
       </c>
-      <c r="AX13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>18</v>
-      </c>
       <c r="AZ13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA13" t="n">
         <v>20</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -2850,10 +2917,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -2868,70 +2935,70 @@
         <v>37</v>
       </c>
       <c r="J14" t="n">
-        <v>83.5</v>
+        <v>82</v>
       </c>
       <c r="K14" t="n">
-        <v>0.443</v>
+        <v>0.451</v>
       </c>
       <c r="L14" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18</v>
+        <v>15.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.444</v>
+        <v>0.5</v>
       </c>
       <c r="O14" t="n">
-        <v>28.5</v>
+        <v>24</v>
       </c>
       <c r="P14" t="n">
-        <v>38</v>
+        <v>31.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.75</v>
+        <v>0.766</v>
       </c>
       <c r="R14" t="n">
-        <v>14.5</v>
+        <v>12.7</v>
       </c>
       <c r="S14" t="n">
-        <v>37.5</v>
+        <v>38.3</v>
       </c>
       <c r="T14" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U14" t="n">
-        <v>23</v>
+        <v>21.7</v>
       </c>
       <c r="V14" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="W14" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="X14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y14" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>22</v>
+        <v>20.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>27.5</v>
+        <v>24</v>
       </c>
       <c r="AB14" t="n">
-        <v>110.5</v>
+        <v>105.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>22.5</v>
+        <v>21.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
         <v>1</v>
@@ -2943,64 +3010,64 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ14" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AK14" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AL14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO14" t="n">
         <v>4</v>
       </c>
-      <c r="AM14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>1</v>
-      </c>
       <c r="AP14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AR14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT14" t="n">
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW14" t="n">
         <v>14</v>
       </c>
       <c r="AX14" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AY14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ14" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BA14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -3113,13 +3180,13 @@
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH15" t="n">
         <v>5</v>
@@ -3131,7 +3198,7 @@
         <v>21</v>
       </c>
       <c r="AK15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL15" t="n">
         <v>29</v>
@@ -3143,19 +3210,19 @@
         <v>29</v>
       </c>
       <c r="AO15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT15" t="n">
         <v>8</v>
@@ -3167,16 +3234,16 @@
         <v>14</v>
       </c>
       <c r="AW15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>22</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>24</v>
       </c>
       <c r="BA15" t="n">
         <v>27</v>
@@ -3185,7 +3252,7 @@
         <v>30</v>
       </c>
       <c r="BC15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -3295,19 +3362,19 @@
         <v>1</v>
       </c>
       <c r="AE16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH16" t="n">
         <v>5</v>
       </c>
       <c r="AI16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ16" t="n">
         <v>12</v>
@@ -3316,40 +3383,40 @@
         <v>10</v>
       </c>
       <c r="AL16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM16" t="n">
         <v>6</v>
       </c>
       <c r="AN16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR16" t="n">
         <v>12</v>
       </c>
-      <c r="AP16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU16" t="n">
         <v>13</v>
       </c>
-      <c r="AS16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>14</v>
-      </c>
       <c r="AV16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX16" t="n">
         <v>15</v>
@@ -3358,16 +3425,16 @@
         <v>2</v>
       </c>
       <c r="AZ16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -3399,157 +3466,157 @@
         <v>3</v>
       </c>
       <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
         <v>2</v>
       </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
       <c r="G17" t="n">
-        <v>0.667</v>
+        <v>0.333</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>35.7</v>
+        <v>36</v>
       </c>
       <c r="J17" t="n">
-        <v>79.3</v>
+        <v>78.3</v>
       </c>
       <c r="K17" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="L17" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="M17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N17" t="n">
-        <v>0.333</v>
+        <v>0.356</v>
       </c>
       <c r="O17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" t="n">
-        <v>25</v>
+        <v>21.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.68</v>
+        <v>0.738</v>
       </c>
       <c r="R17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S17" t="n">
-        <v>32.3</v>
+        <v>26</v>
       </c>
       <c r="T17" t="n">
-        <v>43.3</v>
+        <v>38</v>
       </c>
       <c r="U17" t="n">
         <v>20.7</v>
       </c>
       <c r="V17" t="n">
-        <v>16.3</v>
+        <v>18</v>
       </c>
       <c r="W17" t="n">
-        <v>7.3</v>
+        <v>6.3</v>
       </c>
       <c r="X17" t="n">
         <v>3.7</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.3</v>
+        <v>26.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.7</v>
+        <v>20</v>
       </c>
       <c r="AB17" t="n">
-        <v>93</v>
+        <v>93.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AF17" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>5</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AK17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR17" t="n">
         <v>13</v>
       </c>
-      <c r="AL17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM17" t="n">
+      <c r="AS17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>28</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB17" t="n">
         <v>21</v>
       </c>
-      <c r="AN17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>13</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>22</v>
-      </c>
       <c r="BC17" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -3578,106 +3645,106 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>35.3</v>
+        <v>36.5</v>
       </c>
       <c r="J18" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K18" t="n">
-        <v>0.436</v>
+        <v>0.44</v>
       </c>
       <c r="L18" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.2</v>
+        <v>0.174</v>
       </c>
       <c r="O18" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="P18" t="n">
-        <v>20.7</v>
+        <v>23</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.79</v>
+        <v>0.717</v>
       </c>
       <c r="R18" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="S18" t="n">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="T18" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U18" t="n">
         <v>20</v>
       </c>
       <c r="V18" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="W18" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="X18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y18" t="n">
         <v>6</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.7</v>
+        <v>21.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>18.3</v>
+        <v>20</v>
       </c>
       <c r="AB18" t="n">
-        <v>89.3</v>
+        <v>91.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>-3.7</v>
+        <v>-4</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF18" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
         <v>5</v>
       </c>
       <c r="AI18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK18" t="n">
         <v>18</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>20</v>
       </c>
       <c r="AL18" t="n">
         <v>27</v>
@@ -3692,43 +3759,43 @@
         <v>24</v>
       </c>
       <c r="AP18" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AQ18" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AR18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY18" t="n">
         <v>19</v>
       </c>
-      <c r="AS18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AW18" t="n">
+      <c r="AZ18" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA18" t="n">
         <v>22</v>
       </c>
-      <c r="AX18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>26</v>
-      </c>
       <c r="BB18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BC18" t="n">
         <v>23</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -3838,25 +3905,25 @@
         <v>1</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF19" t="n">
         <v>8</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
         <v>5</v>
       </c>
       <c r="AI19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK19" t="n">
         <v>14</v>
@@ -3865,28 +3932,28 @@
         <v>13</v>
       </c>
       <c r="AM19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO19" t="n">
         <v>20</v>
       </c>
       <c r="AP19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AR19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS19" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AT19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AU19" t="n">
         <v>5</v>
@@ -3895,13 +3962,13 @@
         <v>13</v>
       </c>
       <c r="AW19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ19" t="n">
         <v>30</v>
@@ -3910,7 +3977,7 @@
         <v>22</v>
       </c>
       <c r="BB19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC19" t="n">
         <v>13</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -4038,13 +4105,13 @@
         <v>6</v>
       </c>
       <c r="AJ20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK20" t="n">
         <v>3</v>
       </c>
       <c r="AL20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM20" t="n">
         <v>9</v>
@@ -4056,25 +4123,25 @@
         <v>10</v>
       </c>
       <c r="AP20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AT20" t="n">
         <v>25</v>
       </c>
-      <c r="AT20" t="n">
-        <v>26</v>
-      </c>
       <c r="AU20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AW20" t="n">
         <v>4</v>
@@ -4083,16 +4150,16 @@
         <v>22</v>
       </c>
       <c r="AY20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ20" t="n">
         <v>5</v>
       </c>
       <c r="BA20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC20" t="n">
         <v>5</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -4124,139 +4191,139 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>48</v>
       </c>
       <c r="I21" t="n">
-        <v>34.7</v>
+        <v>37</v>
       </c>
       <c r="J21" t="n">
-        <v>88.7</v>
+        <v>92.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.391</v>
+        <v>0.4</v>
       </c>
       <c r="L21" t="n">
-        <v>9.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="M21" t="n">
-        <v>29.7</v>
+        <v>26.5</v>
       </c>
       <c r="N21" t="n">
-        <v>0.315</v>
+        <v>0.302</v>
       </c>
       <c r="O21" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="P21" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="R21" t="n">
+        <v>15</v>
+      </c>
+      <c r="S21" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="T21" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>23</v>
+      </c>
+      <c r="V21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W21" t="n">
+        <v>10</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>-12</v>
+      </c>
+      <c r="AD21" t="n">
         <v>19</v>
       </c>
-      <c r="P21" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="R21" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="S21" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="T21" t="n">
-        <v>43.3</v>
-      </c>
-      <c r="U21" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="V21" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="W21" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>97.7</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>-10.7</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>1</v>
-      </c>
       <c r="AE21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF21" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
         <v>5</v>
       </c>
       <c r="AI21" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AJ21" t="n">
         <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM21" t="n">
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AO21" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AP21" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AQ21" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AR21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AU21" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AV21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW21" t="n">
         <v>2</v>
@@ -4265,16 +4332,16 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ21" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="BA21" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="BB21" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BC21" t="n">
         <v>28</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -4306,94 +4373,94 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>48</v>
       </c>
       <c r="I22" t="n">
-        <v>34.3</v>
+        <v>33</v>
       </c>
       <c r="J22" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K22" t="n">
-        <v>0.419</v>
+        <v>0.418</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="M22" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.154</v>
+        <v>0.1</v>
       </c>
       <c r="O22" t="n">
-        <v>14.7</v>
+        <v>15.5</v>
       </c>
       <c r="P22" t="n">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.698</v>
+        <v>0.721</v>
       </c>
       <c r="R22" t="n">
-        <v>12.3</v>
+        <v>9</v>
       </c>
       <c r="S22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T22" t="n">
-        <v>41.3</v>
+        <v>37</v>
       </c>
       <c r="U22" t="n">
-        <v>16.3</v>
+        <v>17</v>
       </c>
       <c r="V22" t="n">
-        <v>16.3</v>
+        <v>18</v>
       </c>
       <c r="W22" t="n">
         <v>9</v>
       </c>
       <c r="X22" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.3</v>
+        <v>23</v>
       </c>
       <c r="AA22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>82</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF22" t="n">
         <v>17</v>
       </c>
-      <c r="AB22" t="n">
-        <v>84</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>-6.7</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>18</v>
-      </c>
       <c r="AG22" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AH22" t="n">
         <v>5</v>
@@ -4402,7 +4469,7 @@
         <v>23</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AK22" t="n">
         <v>24</v>
@@ -4417,49 +4484,49 @@
         <v>30</v>
       </c>
       <c r="AO22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AT22" t="n">
         <v>25</v>
       </c>
-      <c r="AQ22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>17</v>
-      </c>
       <c r="AU22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV22" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AW22" t="n">
         <v>4</v>
       </c>
       <c r="AX22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ22" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="BA22" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BB22" t="n">
         <v>29</v>
       </c>
       <c r="BC22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -4569,28 +4636,28 @@
         <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH23" t="n">
         <v>5</v>
       </c>
       <c r="AI23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK23" t="n">
         <v>16</v>
       </c>
       <c r="AL23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM23" t="n">
         <v>2</v>
@@ -4599,25 +4666,25 @@
         <v>20</v>
       </c>
       <c r="AO23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS23" t="n">
         <v>15</v>
       </c>
-      <c r="AP23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AT23" t="n">
         <v>12</v>
       </c>
-      <c r="AS23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>13</v>
-      </c>
       <c r="AU23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV23" t="n">
         <v>16</v>
@@ -4626,19 +4693,19 @@
         <v>16</v>
       </c>
       <c r="AX23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC23" t="n">
         <v>15</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -4751,13 +4818,13 @@
         <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH24" t="n">
         <v>5</v>
@@ -4769,7 +4836,7 @@
         <v>3</v>
       </c>
       <c r="AK24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4781,13 +4848,13 @@
         <v>14</v>
       </c>
       <c r="AO24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP24" t="n">
         <v>28</v>
       </c>
       <c r="AQ24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR24" t="n">
         <v>1</v>
@@ -4799,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="AU24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV24" t="n">
         <v>29</v>
@@ -4808,10 +4875,10 @@
         <v>29</v>
       </c>
       <c r="AX24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ24" t="n">
         <v>2</v>
@@ -4820,10 +4887,10 @@
         <v>28</v>
       </c>
       <c r="BB24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -4933,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF25" t="n">
         <v>8</v>
@@ -4948,37 +5015,37 @@
         <v>6</v>
       </c>
       <c r="AJ25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AQ25" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AR25" t="n">
         <v>28</v>
       </c>
       <c r="AS25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU25" t="n">
         <v>18</v>
@@ -4990,10 +5057,10 @@
         <v>27</v>
       </c>
       <c r="AX25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ25" t="n">
         <v>4</v>
@@ -5002,7 +5069,7 @@
         <v>20</v>
       </c>
       <c r="BB25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC25" t="n">
         <v>13</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -5034,160 +5101,160 @@
         </is>
       </c>
       <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
         <v>2</v>
       </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="H26" t="n">
         <v>48</v>
       </c>
       <c r="I26" t="n">
-        <v>37.5</v>
+        <v>34.7</v>
       </c>
       <c r="J26" t="n">
-        <v>81.5</v>
+        <v>82.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.46</v>
+        <v>0.421</v>
       </c>
       <c r="L26" t="n">
-        <v>7.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="N26" t="n">
-        <v>0.385</v>
+        <v>0.397</v>
       </c>
       <c r="O26" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="P26" t="n">
-        <v>19</v>
+        <v>17.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="R26" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="S26" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="T26" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="U26" t="n">
+        <v>18</v>
+      </c>
+      <c r="V26" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="W26" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="X26" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>-10</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE26" t="n">
         <v>11</v>
       </c>
-      <c r="S26" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="T26" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="U26" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="V26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W26" t="n">
-        <v>9</v>
-      </c>
-      <c r="X26" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>98</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>-5</v>
-      </c>
-      <c r="AD26" t="n">
+      <c r="AF26" t="n">
         <v>17</v>
       </c>
-      <c r="AE26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>8</v>
-      </c>
       <c r="AG26" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
         <v>5</v>
       </c>
       <c r="AI26" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AK26" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AL26" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AM26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
         <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AP26" t="n">
         <v>29</v>
       </c>
       <c r="AQ26" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AR26" t="n">
         <v>15</v>
       </c>
       <c r="AS26" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AT26" t="n">
+        <v>27</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA26" t="n">
         <v>29</v>
       </c>
-      <c r="AU26" t="n">
-        <v>24</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>30</v>
-      </c>
       <c r="BB26" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="BC26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -5297,19 +5364,19 @@
         <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF27" t="n">
         <v>29</v>
       </c>
       <c r="AG27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH27" t="n">
         <v>5</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="n">
         <v>23</v>
@@ -5321,7 +5388,7 @@
         <v>23</v>
       </c>
       <c r="AM27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN27" t="n">
         <v>24</v>
@@ -5330,25 +5397,25 @@
         <v>19</v>
       </c>
       <c r="AP27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR27" t="n">
         <v>26</v>
       </c>
       <c r="AS27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AV27" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AW27" t="n">
         <v>27</v>
@@ -5357,16 +5424,16 @@
         <v>17</v>
       </c>
       <c r="AY27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ27" t="n">
         <v>15</v>
       </c>
       <c r="BA27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BB27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -5476,16 +5543,16 @@
         <v>-3</v>
       </c>
       <c r="AD28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF28" t="n">
         <v>17</v>
       </c>
-      <c r="AE28" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>18</v>
-      </c>
       <c r="AG28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH28" t="n">
         <v>5</v>
@@ -5500,34 +5567,34 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP28" t="n">
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
@@ -5539,19 +5606,19 @@
         <v>29</v>
       </c>
       <c r="AY28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ28" t="n">
         <v>16</v>
       </c>
       <c r="BA28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -5679,34 +5746,34 @@
         <v>25</v>
       </c>
       <c r="AK29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL29" t="n">
         <v>4</v>
       </c>
       <c r="AM29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN29" t="n">
         <v>1</v>
       </c>
       <c r="AO29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
         <v>19</v>
       </c>
       <c r="AQ29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR29" t="n">
         <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU29" t="n">
         <v>2</v>
@@ -5715,22 +5782,22 @@
         <v>12</v>
       </c>
       <c r="AW29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ29" t="n">
         <v>6</v>
       </c>
       <c r="BA29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC29" t="n">
         <v>7</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>13</v>
       </c>
       <c r="AD30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF30" t="n">
         <v>1</v>
@@ -5858,13 +5925,13 @@
         <v>2</v>
       </c>
       <c r="AJ30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM30" t="n">
         <v>29</v>
@@ -5873,19 +5940,19 @@
         <v>24</v>
       </c>
       <c r="AO30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ30" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT30" t="n">
         <v>9</v>
@@ -5897,22 +5964,22 @@
         <v>4</v>
       </c>
       <c r="AW30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX30" t="n">
         <v>17</v>
       </c>
       <c r="AY30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA30" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB30" t="n">
         <v>9</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>8</v>
       </c>
       <c r="BC30" t="n">
         <v>2</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
@@ -6022,25 +6089,25 @@
         <v>-9</v>
       </c>
       <c r="AD31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF31" t="n">
         <v>17</v>
       </c>
-      <c r="AE31" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>18</v>
-      </c>
       <c r="AG31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH31" t="n">
         <v>5</v>
       </c>
       <c r="AI31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ31" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AK31" t="n">
         <v>17</v>
@@ -6049,7 +6116,7 @@
         <v>20</v>
       </c>
       <c r="AM31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN31" t="n">
         <v>23</v>
@@ -6058,22 +6125,22 @@
         <v>11</v>
       </c>
       <c r="AP31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AU31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV31" t="n">
         <v>4</v>
@@ -6091,13 +6158,13 @@
         <v>10</v>
       </c>
       <c r="BA31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC31" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-2-2008-09</t>
+          <t>2008-11-02</t>
         </is>
       </c>
     </row>
